--- a/ChatGPT_Results.xlsx
+++ b/ChatGPT_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas Hofmann\Desktop\MCDC truth tables simpified\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE930D8E-54CC-40E9-B582-E2018328240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA12CD-FB70-49BF-87B5-276179918D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5DC6DC84-4511-4954-A448-9DFCC3517C18}"/>
+    <workbookView xWindow="-23148" yWindow="11496" windowWidth="23256" windowHeight="13896" xr2:uid="{5DC6DC84-4511-4954-A448-9DFCC3517C18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Expr.</t>
   </si>
@@ -206,18 +206,32 @@
     <t>Special MC/DC it is masked</t>
   </si>
   <si>
-    <t>[
-    { "x": 1, "y": 10 },   
-    { "x": 0, "y": 10 },   
-    { "x": 0, "y": 0 },    
-    { "x": 1, "y": 0 }     
-]</t>
-  </si>
-  <si>
     <t>José do you the a mistake?</t>
   </si>
   <si>
-    <t>[
+    <t>Intressting case as ChatGPT was actually always correct but the first time it printed constrains to find w, x, y</t>
+  </si>
+  <si>
+    <t>[
+  { "x": 1, "y": 10 },
+  { "x": 0, "y": 10 },
+  { "x": 0, "y": 9 },
+  { "x": 1, "y": 9 }
+]</t>
+  </si>
+  <si>
+    <t>[
+  { "x": 0, "y": 10 }, 
+  { "x": 1, "y": 10 },
+  { "x": 0, "y": 9 }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "x": "1",
+    "y": "9"
+  },
   {
     "x": "1",
     "y": "11"
@@ -227,33 +241,26 @@
     "y": "9"
   },
   {
+    "x": "0",
+    "y": "11"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
     "x": "1",
     "y": "9"
   },
   {
     "x": "0",
+    "y": "9"
+  },
+  {
+    "x": "1",
     "y": "11"
   }
 ]</t>
-  </si>
-  <si>
-    <t>[
-  {
-    "x": "1",
-    "y": "11"
-  },
-  {
-    "x": "0",
-    "y": "9"
-  },
-  {
-    "x": "0",
-    "y": "11"
-  }
-]</t>
-  </si>
-  <si>
-    <t>Intressting case as ChatGPT was actually always correct but the first time it printed constrains to find w, x, y</t>
   </si>
 </sst>
 </file>
@@ -315,10 +322,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,22 +663,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FE8A36-56AC-4BAC-83E5-FC275CDFA612}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="35.19921875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="8" max="8" width="33.5" customWidth="1"/>
-    <col min="9" max="9" width="16.09765625" customWidth="1"/>
+    <col min="9" max="9" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="75">
+    <row r="1" spans="1:12" ht="74">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -697,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="55.2">
+    <row r="2" spans="1:12" ht="56">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -723,7 +730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="55.2">
+    <row r="3" spans="1:12" ht="56">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,7 +756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="55.2">
+    <row r="4" spans="1:12" ht="56">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -775,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="193.2">
+    <row r="5" spans="1:12" ht="196">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -801,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="409.6">
+    <row r="6" spans="1:12" ht="409.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -825,7 +832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="179.4">
+    <row r="7" spans="1:12" ht="140">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -851,10 +858,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="69">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="70">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,7 +887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="82.8">
+    <row r="9" spans="1:12" ht="84">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,11 +909,11 @@
       <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="248.4">
+    <row r="10" spans="1:12" ht="252">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -917,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>28</v>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="82.8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="84">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -949,25 +956,25 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H11" t="s">
-        <v>21</v>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I11" t="s">
         <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ChatGPT_Results.xlsx
+++ b/ChatGPT_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas Hofmann\Desktop\MCDC truth tables simpified\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\_myProjects\Results-LLM-Oracle-MC-DC-Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA12CD-FB70-49BF-87B5-276179918D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42592D1B-5460-478D-A887-AB7C92978E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="11496" windowWidth="23256" windowHeight="13896" xr2:uid="{5DC6DC84-4511-4954-A448-9DFCC3517C18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5DC6DC84-4511-4954-A448-9DFCC3517C18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,13 +182,6 @@
 ]</t>
   </si>
   <si>
-    <t>[
-  { "x": "1", "y": "0" },
-  { "x": "0", "y": "9" }, 
-  { "x": "0", "y": "0" } 
-]</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Runs Opt. </t>
     </r>
@@ -260,6 +253,13 @@
     "x": "1",
     "y": "11"
   }
+]</t>
+  </si>
+  <si>
+    <t>[
+  { "x": "1", "y": "0" },
+  { "x": "0", "y": "9" },
+  { "x": "0", "y": "10" }
 ]</t>
   </si>
 </sst>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -322,11 +322,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,22 +667,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FE8A36-56AC-4BAC-83E5-FC275CDFA612}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.19921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" customWidth="1"/>
     <col min="8" max="8" width="33.5" customWidth="1"/>
-    <col min="9" max="9" width="16.08203125" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="74">
+    <row r="1" spans="1:12" ht="75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
@@ -704,7 +708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="56">
+    <row r="2" spans="1:12" ht="55.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -730,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="56">
+    <row r="3" spans="1:12" ht="55.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -756,7 +760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="56">
+    <row r="4" spans="1:12" ht="55.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -782,7 +786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="196">
+    <row r="5" spans="1:12" ht="193.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,31 +812,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="409.5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12" ht="409.6">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>3.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="140">
+    <row r="7" spans="1:12" ht="138">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -851,43 +855,43 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="70">
-      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="69">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>3.5</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84">
+    <row r="9" spans="1:12" ht="82.8">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -906,14 +910,14 @@
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="252">
+    <row r="10" spans="1:12" ht="248.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,28 +928,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
         <v>25</v>
       </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="84">
+    </row>
+    <row r="11" spans="1:12" ht="82.8">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -968,13 +972,13 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
         <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ChatGPT_Results.xlsx
+++ b/ChatGPT_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\_myProjects\Results-LLM-Oracle-MC-DC-Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42592D1B-5460-478D-A887-AB7C92978E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD72C7-9BBC-4838-9DB3-699BEE7C829B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5DC6DC84-4511-4954-A448-9DFCC3517C18}"/>
   </bookViews>
@@ -65,9 +65,6 @@
 ]</t>
   </si>
   <si>
-    <t>(x = 0) &amp; (y = 0)</t>
-  </si>
-  <si>
     <t>(w &gt;= x) &amp; (x = y) &amp; (y &gt;= z)</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   { "x": "0", "y": "9" },
   { "x": "0", "y": "10" }
 ]</t>
+  </si>
+  <si>
+    <t>(x = 10) &amp; (y = 10)</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -324,13 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FE8A36-56AC-4BAC-83E5-FC275CDFA612}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -699,13 +692,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="55.2">
@@ -731,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="55.2">
@@ -757,12 +750,12 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="55.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="88.2" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>3.5</v>
@@ -771,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -783,12 +776,12 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="193.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -797,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -809,36 +802,36 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="409.6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C6" s="2">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="138">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -847,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -859,41 +852,41 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="69">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
         <v>3.5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>21</v>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="82.8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -902,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -914,12 +907,12 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="248.4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>3.5</v>
@@ -928,30 +921,30 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
         <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="82.8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -960,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
@@ -972,13 +965,13 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
         <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
